--- a/ModeloMonitorador.xlsx
+++ b/ModeloMonitorador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev\Documents\_desafioUnikaMain\desafiounikamain-Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF3D495-845A-4C1E-94B7-1CFFDCDF8406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B866CF-83AF-44F2-8012-4460D86C8796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Tipo Pessoa</t>
   </si>
@@ -52,29 +52,26 @@
     <t>Ativo</t>
   </si>
   <si>
-    <t>FISICA ou JURIDICA</t>
-  </si>
-  <si>
-    <t>XX.XXX.XXX/0001-XX</t>
-  </si>
-  <si>
     <t>Inscrição estadual</t>
   </si>
   <si>
-    <t>XXX.XXX.XXX-XX</t>
-  </si>
-  <si>
     <t>example@example.com</t>
   </si>
   <si>
-    <t>Sim ou Não</t>
+    <t>Fisica</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Juridica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -86,22 +83,6 @@
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,12 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,24 +443,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -518,19 +497,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
+      <c r="E2">
+        <v>71061170136</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -539,25 +509,95 @@
         <v>6</v>
       </c>
       <c r="H2" s="2">
-        <v>767326</v>
+        <v>36841</v>
       </c>
       <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>36841</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H4" s="3"/>
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="4"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>36841</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>36841</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>